--- a/AqaAssemEmulator-GUI/TestTable.xlsx
+++ b/AqaAssemEmulator-GUI/TestTable.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmy\source\repos\AqaAssemEmulator-GUI\AssemEmulatorGUI\AqaAssemEmulator-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4B07A9A0-9E09-427C-B961-6C85F1EF479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528BC556-F000-4546-9AEE-E431B8E9230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Test Identifier</t>
   </si>
@@ -57,12 +57,51 @@
   </si>
   <si>
     <t>Observed</t>
+  </si>
+  <si>
+    <t>1.a</t>
+  </si>
+  <si>
+    <t>once the "load assembly button" is pressed the assembly is compiled and the machinecode is stored in the emulated RAM</t>
+  </si>
+  <si>
+    <t>1.b.i</t>
+  </si>
+  <si>
+    <t>1.b.ii</t>
+  </si>
+  <si>
+    <t>1.c</t>
+  </si>
+  <si>
+    <t>valid AQA assem is put into the editor and the "load assembly button is pressed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when the "load assembly" button is pressed a breakpoint triggers showing that the comment is removed</t>
+  </si>
+  <si>
+    <t>when the "load assembly" button is pressed a breakpoint in the pre-processor triggers, showing the flag was detected</t>
+  </si>
+  <si>
+    <t>code with a preprocessor flag placed into the code editor, the load assembly button is pressed</t>
+  </si>
+  <si>
+    <t>valid AQA assem containing a comment is put into the editor and the "load assembly" button is pressed</t>
+  </si>
+  <si>
+    <t>AQA assem not containing a halt instruction is entered into the code editor, the "load assembly" button is pressed</t>
+  </si>
+  <si>
+    <t>a none fatal error is shown saying no halt instruction was found, the ignore button is pressed and the program should still run and halt at the end.</t>
+  </si>
+  <si>
+    <t>1.d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,14 +131,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -116,7 +226,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -427,19 +537,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" customWidth="1"/>
     <col min="4" max="6" width="18.59765625" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
@@ -467,7 +577,124 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="89.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AqaAssemEmulator-GUI/TestTable.xlsx
+++ b/AqaAssemEmulator-GUI/TestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmy\source\repos\AqaAssemEmulator-GUI\AssemEmulatorGUI\AqaAssemEmulator-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528BC556-F000-4546-9AEE-E431B8E9230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B3B49-0C7B-4C12-98E4-2D7313613FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Test Identifier</t>
   </si>
@@ -96,6 +96,228 @@
   </si>
   <si>
     <t>1.d</t>
+  </si>
+  <si>
+    <t>"LDR-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"STR-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"ADD-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"SUB-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"MOV-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"CMP-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"B-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"BLT-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"BGT-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"BNE-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"BEQ-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"AND-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"EOR-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"ORR-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"MVN-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"LSL-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"LSR-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"HALT-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"INPUT-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"OUTPUT-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"DUMP-registers-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"DUMP-memory-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"DUMP-all-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"JMP-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>"CDP-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the value "10" is loaded from memory address 100 into register 0</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the number "10" is copied from register 0 into memory address 100</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, after running register 2, 3, and 4 all store the value "3"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, after running register 2, 3, and 4 all store the value "2"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, a none fatal error is thrown as MOV is used like LDR (this is ignored), after running registers 0, 1, and 2 all contain the value "3"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the CPSR sets to "Negative", then "Zero", then "None"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the program outputs 0 indicating it has branched</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, after running register 2 contains the value "2"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, after running register 2 contains the value "7"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, after running register 2 contains the value "15"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the program outputs 0</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the program stops immediately before any registers change their value</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the user is asked to enter an integer, only a positive number is accepted, this is stored in register 0</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, a popout appears telling the user register 12 contains the value "10"</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the file  ./Dumps/registers.dump is created containing the values of all the registers in the CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the program compiles and begins to run, the file  ./Dumps/memory.dump is created containing the values of all the memory addresses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the program compiles and begins to run, 2 files are created in ./Dumps: registers.dump (containing all the registers in the CPU), and memory.dump (containing the values of all the memory addresses) </t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run, the program outputs 0 to indicate a successful jump</t>
+  </si>
+  <si>
+    <t>the program compiles and begins to run,the number 1 is outputted to the user</t>
+  </si>
+  <si>
+    <t>1.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a program is ran with the "run program" button </t>
+  </si>
+  <si>
+    <t>all the variables used in  the program and the internal registers appear in the trace table</t>
+  </si>
+  <si>
+    <t>a popup is shown to the user stating "MOV was used like LDR" and the user has the option to ignore the error or abort</t>
+  </si>
+  <si>
+    <t>"error-testing-none-fatal.aqa" is loaded with the "load from file" button</t>
+  </si>
+  <si>
+    <t>"error-testing-fatal.aqa" is attempted to be loaded with the "load from file" buttom</t>
+  </si>
+  <si>
+    <t>the compiler refuses to load the file as it is not valid AQA assem</t>
+  </si>
+  <si>
+    <t>1.f.I</t>
+  </si>
+  <si>
+    <t>1.f.II</t>
+  </si>
+  <si>
+    <t>2.a.I</t>
+  </si>
+  <si>
+    <t>the compiler throws an error as the extended flag is not present but instructions from the extended instructionset are present</t>
+  </si>
+  <si>
+    <t>"EXTENDED-does-work.aqa" is attempted to be loaded with the "load from file" buttom</t>
+  </si>
+  <si>
+    <t>"EXTENDED-doesnt-work.aqa" is attempted to be loaded with the "load from file" buttom</t>
+  </si>
+  <si>
+    <t>the program loads and runs with no errors (the user is asked to enter a number)</t>
+  </si>
+  <si>
+    <t>2.a.II</t>
+  </si>
+  <si>
+    <t>"INCLUDE-test.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>the program first outputs 0, then 2</t>
+  </si>
+  <si>
+    <t>2.b.I</t>
+  </si>
+  <si>
+    <t>"INPUT-test.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>"OUTPUT-test.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>2.b.II</t>
+  </si>
+  <si>
+    <t>2.b.III</t>
+  </si>
+  <si>
+    <t>"CDP-test.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>"JMP-test.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>3.a</t>
+  </si>
+  <si>
+    <t>the program is opened and the hardware tab is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the UI element representing the CPU contains a program counter, memory address register, memory data register, accumulator, and generic register 1 through 12 (inclusive) </t>
+  </si>
+  <si>
+    <t>3.b</t>
+  </si>
+  <si>
+    <t>the settings tab is opened to show the current delay set to 100 ms, a program is ran. The settings tab is then opened again and the delay is set to 10 ms and the program is ran again</t>
+  </si>
+  <si>
+    <t>the second time the program is ran it should be noticably faster than before (approximately 10 times as fast)</t>
   </si>
 </sst>
 </file>
@@ -142,74 +364,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,7 +380,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -538,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -637,61 +791,455 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="2:7" ht="114" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AqaAssemEmulator-GUI/TestTable.xlsx
+++ b/AqaAssemEmulator-GUI/TestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmy\source\repos\AqaAssemEmulator-GUI\AssemEmulatorGUI\AqaAssemEmulator-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B3B49-0C7B-4C12-98E4-2D7313613FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D40DAD-1667-4D2D-A093-C3850B127595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>Test Identifier</t>
   </si>
@@ -95,9 +95,6 @@
     <t>a none fatal error is shown saying no halt instruction was found, the ignore button is pressed and the program should still run and halt at the end.</t>
   </si>
   <si>
-    <t>1.d</t>
-  </si>
-  <si>
     <t>"LDR-test.aqa" is loaded by pressing the "load from file" button and ran with the "run program" button</t>
   </si>
   <si>
@@ -281,27 +278,6 @@
     <t>the program first outputs 0, then 2</t>
   </si>
   <si>
-    <t>2.b.I</t>
-  </si>
-  <si>
-    <t>"INPUT-test.aqa" is loaded and ran</t>
-  </si>
-  <si>
-    <t>"OUTPUT-test.aqa" is loaded and ran</t>
-  </si>
-  <si>
-    <t>2.b.II</t>
-  </si>
-  <si>
-    <t>2.b.III</t>
-  </si>
-  <si>
-    <t>"CDP-test.aqa" is loaded and ran</t>
-  </si>
-  <si>
-    <t>"JMP-test.aqa" is loaded and ran</t>
-  </si>
-  <si>
     <t>3.a</t>
   </si>
   <si>
@@ -311,13 +287,154 @@
     <t xml:space="preserve">the UI element representing the CPU contains a program counter, memory address register, memory data register, accumulator, and generic register 1 through 12 (inclusive) </t>
   </si>
   <si>
-    <t>3.b</t>
-  </si>
-  <si>
     <t>the settings tab is opened to show the current delay set to 100 ms, a program is ran. The settings tab is then opened again and the delay is set to 10 ms and the program is ran again</t>
   </si>
   <si>
     <t>the second time the program is ran it should be noticably faster than before (approximately 10 times as fast)</t>
+  </si>
+  <si>
+    <t>1.d, 2.b.I</t>
+  </si>
+  <si>
+    <t>1.d, 3.c, 3.d</t>
+  </si>
+  <si>
+    <t>1.d, 3.d</t>
+  </si>
+  <si>
+    <t>1.d, 2.b.I, 3.d</t>
+  </si>
+  <si>
+    <t>1.d, 2.b.III, 3.d</t>
+  </si>
+  <si>
+    <t>1.d, 2.b.II, 3.d</t>
+  </si>
+  <si>
+    <t>3.e</t>
+  </si>
+  <si>
+    <t>"emulator-error-testing-fatal.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>an emulator error is displayed as the program counter was set to -1, the emulator stops</t>
+  </si>
+  <si>
+    <t>4.a</t>
+  </si>
+  <si>
+    <t>"Load from file" is pressed</t>
+  </si>
+  <si>
+    <t>thr open folder dialogue appears, in the documents folder there is a file called assem-files, in here several .aqa files are saved</t>
+  </si>
+  <si>
+    <t>"define-header-testing.aqa" is loaded</t>
+  </si>
+  <si>
+    <t>a new trace table is created tracking the specific registers, and registers 0, 1, and 2</t>
+  </si>
+  <si>
+    <t>4.b.II</t>
+  </si>
+  <si>
+    <t>testing mode is enabled in settings, "define-header-testing.aqa" is loaded</t>
+  </si>
+  <si>
+    <t>a new trace table is created tracking only registers 0, 1, and 2</t>
+  </si>
+  <si>
+    <t>"updating-testing.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>the trace table should update update immediately to show the register values updating</t>
+  </si>
+  <si>
+    <t>testing mode is enabled in settings, "updating-testing.aqa" is loaded and ran</t>
+  </si>
+  <si>
+    <t>the trace table only shows the number of lines needed</t>
+  </si>
+  <si>
+    <t>4.b.V</t>
+  </si>
+  <si>
+    <t>4.b.III, 4.b.IV</t>
+  </si>
+  <si>
+    <t>4.b.VI</t>
+  </si>
+  <si>
+    <t>testing mode is enabled in settings, "tracking-variables-testing.aqa" is loaded and ran, the trace table is then filled out as said in the file</t>
+  </si>
+  <si>
+    <t>the entered values turn green as they are entered correctly</t>
+  </si>
+  <si>
+    <t>4.b.VII</t>
+  </si>
+  <si>
+    <t>testing mode is enabled in settings, "tracking-variables-testing.aqa" is loaded and ran, the trace table is then filled out differently than stated in the file</t>
+  </si>
+  <si>
+    <t>the values turn red as they are not entered correctly</t>
+  </si>
+  <si>
+    <t>4.b.VIII</t>
+  </si>
+  <si>
+    <t>"update-depth-testing.aqa" is loaded and ran until it outputs a register</t>
+  </si>
+  <si>
+    <t>once the program outputs a register the tracetable will be nearly full, the program is then allowed to continue. The tracetable row count should have increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the program is opened </t>
+  </si>
+  <si>
+    <t>there should be 5 tabs: ‘Hardware View’, ‘Trace Table’, ‘Editor’, ‘Settings’, ‘How to use’</t>
+  </si>
+  <si>
+    <t>5.a</t>
+  </si>
+  <si>
+    <t>5.b.I, 5.b.II, 5.b.III,  5.b.IV</t>
+  </si>
+  <si>
+    <t>the is are 4 buttons: "Run Program", "Load from file", "Reset Sysyem", "Manual Halt"</t>
+  </si>
+  <si>
+    <t>5.b.V</t>
+  </si>
+  <si>
+    <t>the large icon labelled RAM is pressed</t>
+  </si>
+  <si>
+    <t>a popout showing the contents of memory appears</t>
+  </si>
+  <si>
+    <t>3.b, 5.e</t>
+  </si>
+  <si>
+    <t>4.b.I, 5.c</t>
+  </si>
+  <si>
+    <t>5.d</t>
+  </si>
+  <si>
+    <t>the editor tab is opened, "load from file" is pressed and "editor-testing.aqa" is loaded, "save file" is pressed and the file is saved as "editor-testing-2.aqa", "Load to ram" is pressed</t>
+  </si>
+  <si>
+    <t>the file is successfully loaded and saved (validated with notepad and file explorer), when "load to ram" is pressed the program is compiled into memory</t>
+  </si>
+  <si>
+    <t>5.f</t>
+  </si>
+  <si>
+    <t>the how to use tab is opened</t>
+  </si>
+  <si>
+    <t>the how to use tab contains instructions on how to use the program</t>
   </si>
 </sst>
 </file>
@@ -364,6 +481,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,7 +565,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -692,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G43"/>
+  <dimension ref="B1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,452 +978,670 @@
     </row>
     <row r="7" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="114" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="s">
+    </row>
+    <row r="38" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C38">
-        <v>36</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
       <c r="C39">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="57" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46">
+        <v>47</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48">
+        <v>49</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
